--- a/excel/finished/6高炉/高炉冷却壁温度月报表.xlsx
+++ b/excel/finished/6高炉/高炉冷却壁温度月报表.xlsx
@@ -22,12 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="197">
   <si>
     <t>高炉冷却壁温度月报表</t>
-  </si>
-  <si>
-    <t>高炉冷却壁温度日报表</t>
   </si>
   <si>
     <t>时间</t>
@@ -687,7 +684,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -822,26 +819,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -881,8 +863,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1207,1718 +1187,1718 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ET53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
+      <selection activeCell="BL29" sqref="BL29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:150" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="24"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="22"/>
       <c r="W1" s="15"/>
       <c r="X1" s="15"/>
       <c r="Y1" s="15"/>
-      <c r="Z1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23"/>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="23"/>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="23"/>
-      <c r="AO1" s="23"/>
-      <c r="AP1" s="23"/>
-      <c r="AQ1" s="23"/>
-      <c r="AR1" s="23"/>
-      <c r="AS1" s="23"/>
-      <c r="AT1" s="23"/>
-      <c r="AU1" s="24"/>
+      <c r="Z1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="21"/>
+      <c r="AM1" s="21"/>
+      <c r="AN1" s="21"/>
+      <c r="AO1" s="21"/>
+      <c r="AP1" s="21"/>
+      <c r="AQ1" s="21"/>
+      <c r="AR1" s="21"/>
+      <c r="AS1" s="21"/>
+      <c r="AT1" s="21"/>
+      <c r="AU1" s="22"/>
       <c r="AV1" s="15"/>
       <c r="AW1" s="15"/>
       <c r="AX1" s="15"/>
-      <c r="AY1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ1" s="23"/>
-      <c r="BA1" s="23"/>
-      <c r="BB1" s="23"/>
-      <c r="BC1" s="23"/>
-      <c r="BD1" s="23"/>
-      <c r="BE1" s="23"/>
-      <c r="BF1" s="23"/>
-      <c r="BG1" s="23"/>
-      <c r="BH1" s="23"/>
-      <c r="BI1" s="23"/>
-      <c r="BJ1" s="23"/>
-      <c r="BK1" s="23"/>
-      <c r="BL1" s="23"/>
-      <c r="BM1" s="23"/>
-      <c r="BN1" s="23"/>
-      <c r="BO1" s="23"/>
-      <c r="BP1" s="23"/>
-      <c r="BQ1" s="23"/>
-      <c r="BR1" s="23"/>
-      <c r="BS1" s="23"/>
-      <c r="BT1" s="24"/>
+      <c r="AY1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ1" s="21"/>
+      <c r="BA1" s="21"/>
+      <c r="BB1" s="21"/>
+      <c r="BC1" s="21"/>
+      <c r="BD1" s="21"/>
+      <c r="BE1" s="21"/>
+      <c r="BF1" s="21"/>
+      <c r="BG1" s="21"/>
+      <c r="BH1" s="21"/>
+      <c r="BI1" s="21"/>
+      <c r="BJ1" s="21"/>
+      <c r="BK1" s="21"/>
+      <c r="BL1" s="21"/>
+      <c r="BM1" s="21"/>
+      <c r="BN1" s="21"/>
+      <c r="BO1" s="21"/>
+      <c r="BP1" s="21"/>
+      <c r="BQ1" s="21"/>
+      <c r="BR1" s="21"/>
+      <c r="BS1" s="21"/>
+      <c r="BT1" s="22"/>
       <c r="BU1" s="15"/>
       <c r="BV1" s="15"/>
       <c r="BW1" s="15"/>
-      <c r="BX1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="BY1" s="23"/>
-      <c r="BZ1" s="23"/>
-      <c r="CA1" s="23"/>
-      <c r="CB1" s="23"/>
-      <c r="CC1" s="23"/>
-      <c r="CD1" s="23"/>
-      <c r="CE1" s="23"/>
-      <c r="CF1" s="23"/>
-      <c r="CG1" s="23"/>
-      <c r="CH1" s="23"/>
-      <c r="CI1" s="23"/>
-      <c r="CJ1" s="23"/>
-      <c r="CK1" s="23"/>
-      <c r="CL1" s="23"/>
-      <c r="CM1" s="23"/>
-      <c r="CN1" s="23"/>
-      <c r="CO1" s="23"/>
-      <c r="CP1" s="23"/>
-      <c r="CQ1" s="23"/>
-      <c r="CR1" s="23"/>
-      <c r="CS1" s="24"/>
+      <c r="BX1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY1" s="21"/>
+      <c r="BZ1" s="21"/>
+      <c r="CA1" s="21"/>
+      <c r="CB1" s="21"/>
+      <c r="CC1" s="21"/>
+      <c r="CD1" s="21"/>
+      <c r="CE1" s="21"/>
+      <c r="CF1" s="21"/>
+      <c r="CG1" s="21"/>
+      <c r="CH1" s="21"/>
+      <c r="CI1" s="21"/>
+      <c r="CJ1" s="21"/>
+      <c r="CK1" s="21"/>
+      <c r="CL1" s="21"/>
+      <c r="CM1" s="21"/>
+      <c r="CN1" s="21"/>
+      <c r="CO1" s="21"/>
+      <c r="CP1" s="21"/>
+      <c r="CQ1" s="21"/>
+      <c r="CR1" s="21"/>
+      <c r="CS1" s="22"/>
       <c r="CT1" s="15"/>
       <c r="CU1" s="15"/>
       <c r="CV1" s="15"/>
-      <c r="CW1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="CX1" s="23"/>
-      <c r="CY1" s="23"/>
-      <c r="CZ1" s="23"/>
-      <c r="DA1" s="23"/>
-      <c r="DB1" s="23"/>
-      <c r="DC1" s="23"/>
-      <c r="DD1" s="23"/>
-      <c r="DE1" s="23"/>
-      <c r="DF1" s="23"/>
-      <c r="DG1" s="23"/>
-      <c r="DH1" s="23"/>
-      <c r="DI1" s="23"/>
-      <c r="DJ1" s="23"/>
-      <c r="DK1" s="23"/>
-      <c r="DL1" s="23"/>
-      <c r="DM1" s="23"/>
-      <c r="DN1" s="23"/>
-      <c r="DO1" s="23"/>
-      <c r="DP1" s="23"/>
-      <c r="DQ1" s="23"/>
-      <c r="DR1" s="24"/>
+      <c r="CW1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="CX1" s="21"/>
+      <c r="CY1" s="21"/>
+      <c r="CZ1" s="21"/>
+      <c r="DA1" s="21"/>
+      <c r="DB1" s="21"/>
+      <c r="DC1" s="21"/>
+      <c r="DD1" s="21"/>
+      <c r="DE1" s="21"/>
+      <c r="DF1" s="21"/>
+      <c r="DG1" s="21"/>
+      <c r="DH1" s="21"/>
+      <c r="DI1" s="21"/>
+      <c r="DJ1" s="21"/>
+      <c r="DK1" s="21"/>
+      <c r="DL1" s="21"/>
+      <c r="DM1" s="21"/>
+      <c r="DN1" s="21"/>
+      <c r="DO1" s="21"/>
+      <c r="DP1" s="21"/>
+      <c r="DQ1" s="21"/>
+      <c r="DR1" s="22"/>
       <c r="DS1" s="15"/>
       <c r="DT1" s="15"/>
       <c r="DU1" s="15"/>
-      <c r="DV1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="DW1" s="23"/>
-      <c r="DX1" s="23"/>
-      <c r="DY1" s="23"/>
-      <c r="DZ1" s="23"/>
-      <c r="EA1" s="23"/>
-      <c r="EB1" s="23"/>
-      <c r="EC1" s="23"/>
-      <c r="ED1" s="23"/>
-      <c r="EE1" s="23"/>
-      <c r="EF1" s="23"/>
-      <c r="EG1" s="23"/>
-      <c r="EH1" s="23"/>
-      <c r="EI1" s="23"/>
-      <c r="EJ1" s="23"/>
-      <c r="EK1" s="23"/>
-      <c r="EL1" s="23"/>
-      <c r="EM1" s="23"/>
-      <c r="EN1" s="23"/>
-      <c r="EO1" s="23"/>
-      <c r="EP1" s="23"/>
-      <c r="EQ1" s="24"/>
+      <c r="DV1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="DW1" s="21"/>
+      <c r="DX1" s="21"/>
+      <c r="DY1" s="21"/>
+      <c r="DZ1" s="21"/>
+      <c r="EA1" s="21"/>
+      <c r="EB1" s="21"/>
+      <c r="EC1" s="21"/>
+      <c r="ED1" s="21"/>
+      <c r="EE1" s="21"/>
+      <c r="EF1" s="21"/>
+      <c r="EG1" s="21"/>
+      <c r="EH1" s="21"/>
+      <c r="EI1" s="21"/>
+      <c r="EJ1" s="21"/>
+      <c r="EK1" s="21"/>
+      <c r="EL1" s="21"/>
+      <c r="EM1" s="21"/>
+      <c r="EN1" s="21"/>
+      <c r="EO1" s="21"/>
+      <c r="EP1" s="21"/>
+      <c r="EQ1" s="22"/>
       <c r="ER1" s="15"/>
       <c r="ES1" s="15"/>
       <c r="ET1" s="15"/>
     </row>
     <row r="2" spans="1:150" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20" t="s">
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="21" t="s">
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="19" t="s">
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="20" t="s">
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="20" t="s">
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="18"/>
+      <c r="AO2" s="18"/>
+      <c r="AP2" s="18"/>
+      <c r="AQ2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="20"/>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
-      <c r="AQ2" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="AR2" s="20"/>
-      <c r="AS2" s="20"/>
-      <c r="AT2" s="20"/>
-      <c r="AU2" s="20"/>
-      <c r="AV2" s="20"/>
-      <c r="AW2" s="20"/>
-      <c r="AX2" s="20"/>
-      <c r="AY2" s="21" t="s">
+      <c r="AR2" s="18"/>
+      <c r="AS2" s="18"/>
+      <c r="AT2" s="18"/>
+      <c r="AU2" s="18"/>
+      <c r="AV2" s="18"/>
+      <c r="AW2" s="18"/>
+      <c r="AX2" s="18"/>
+      <c r="AY2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="AZ2" s="19" t="s">
+      <c r="BA2" s="17"/>
+      <c r="BB2" s="17"/>
+      <c r="BC2" s="17"/>
+      <c r="BD2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="BA2" s="19"/>
-      <c r="BB2" s="19"/>
-      <c r="BC2" s="19"/>
-      <c r="BD2" s="20" t="s">
+      <c r="BE2" s="18"/>
+      <c r="BF2" s="18"/>
+      <c r="BG2" s="18"/>
+      <c r="BH2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="BE2" s="20"/>
-      <c r="BF2" s="20"/>
-      <c r="BG2" s="20"/>
-      <c r="BH2" s="20" t="s">
+      <c r="BI2" s="18"/>
+      <c r="BJ2" s="18"/>
+      <c r="BK2" s="18"/>
+      <c r="BL2" s="18"/>
+      <c r="BM2" s="18"/>
+      <c r="BN2" s="18"/>
+      <c r="BO2" s="18"/>
+      <c r="BP2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="BI2" s="20"/>
-      <c r="BJ2" s="20"/>
-      <c r="BK2" s="20"/>
-      <c r="BL2" s="20"/>
-      <c r="BM2" s="20"/>
-      <c r="BN2" s="20"/>
-      <c r="BO2" s="20"/>
-      <c r="BP2" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="BQ2" s="20"/>
-      <c r="BR2" s="20"/>
-      <c r="BS2" s="20"/>
-      <c r="BT2" s="20"/>
-      <c r="BU2" s="20"/>
-      <c r="BV2" s="20"/>
-      <c r="BW2" s="20"/>
-      <c r="BX2" s="21" t="s">
+      <c r="BQ2" s="18"/>
+      <c r="BR2" s="18"/>
+      <c r="BS2" s="18"/>
+      <c r="BT2" s="18"/>
+      <c r="BU2" s="18"/>
+      <c r="BV2" s="18"/>
+      <c r="BW2" s="18"/>
+      <c r="BX2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="BY2" s="19" t="s">
+      <c r="BZ2" s="17"/>
+      <c r="CA2" s="17"/>
+      <c r="CB2" s="17"/>
+      <c r="CC2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="BZ2" s="19"/>
-      <c r="CA2" s="19"/>
-      <c r="CB2" s="19"/>
-      <c r="CC2" s="20" t="s">
+      <c r="CD2" s="18"/>
+      <c r="CE2" s="18"/>
+      <c r="CF2" s="18"/>
+      <c r="CG2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="CD2" s="20"/>
-      <c r="CE2" s="20"/>
-      <c r="CF2" s="20"/>
-      <c r="CG2" s="20" t="s">
+      <c r="CH2" s="18"/>
+      <c r="CI2" s="18"/>
+      <c r="CJ2" s="18"/>
+      <c r="CK2" s="18"/>
+      <c r="CL2" s="18"/>
+      <c r="CM2" s="18"/>
+      <c r="CN2" s="18"/>
+      <c r="CO2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="CH2" s="20"/>
-      <c r="CI2" s="20"/>
-      <c r="CJ2" s="20"/>
-      <c r="CK2" s="20"/>
-      <c r="CL2" s="20"/>
-      <c r="CM2" s="20"/>
-      <c r="CN2" s="20"/>
-      <c r="CO2" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="CP2" s="20"/>
-      <c r="CQ2" s="20"/>
-      <c r="CR2" s="20"/>
-      <c r="CS2" s="20"/>
-      <c r="CT2" s="20"/>
-      <c r="CU2" s="20"/>
-      <c r="CV2" s="20"/>
-      <c r="CW2" s="21" t="s">
+      <c r="CP2" s="18"/>
+      <c r="CQ2" s="18"/>
+      <c r="CR2" s="18"/>
+      <c r="CS2" s="18"/>
+      <c r="CT2" s="18"/>
+      <c r="CU2" s="18"/>
+      <c r="CV2" s="18"/>
+      <c r="CW2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="CX2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="CX2" s="19" t="s">
+      <c r="CY2" s="17"/>
+      <c r="CZ2" s="17"/>
+      <c r="DA2" s="17"/>
+      <c r="DB2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="CY2" s="19"/>
-      <c r="CZ2" s="19"/>
-      <c r="DA2" s="19"/>
-      <c r="DB2" s="20" t="s">
+      <c r="DC2" s="18"/>
+      <c r="DD2" s="18"/>
+      <c r="DE2" s="18"/>
+      <c r="DF2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="DC2" s="20"/>
-      <c r="DD2" s="20"/>
-      <c r="DE2" s="20"/>
-      <c r="DF2" s="20" t="s">
+      <c r="DG2" s="18"/>
+      <c r="DH2" s="18"/>
+      <c r="DI2" s="18"/>
+      <c r="DJ2" s="18"/>
+      <c r="DK2" s="18"/>
+      <c r="DL2" s="18"/>
+      <c r="DM2" s="18"/>
+      <c r="DN2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="DG2" s="20"/>
-      <c r="DH2" s="20"/>
-      <c r="DI2" s="20"/>
-      <c r="DJ2" s="20"/>
-      <c r="DK2" s="20"/>
-      <c r="DL2" s="20"/>
-      <c r="DM2" s="20"/>
-      <c r="DN2" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="DO2" s="20"/>
-      <c r="DP2" s="20"/>
-      <c r="DQ2" s="20"/>
-      <c r="DR2" s="20"/>
-      <c r="DS2" s="20"/>
-      <c r="DT2" s="20"/>
-      <c r="DU2" s="20"/>
-      <c r="DV2" s="21" t="s">
+      <c r="DO2" s="18"/>
+      <c r="DP2" s="18"/>
+      <c r="DQ2" s="18"/>
+      <c r="DR2" s="18"/>
+      <c r="DS2" s="18"/>
+      <c r="DT2" s="18"/>
+      <c r="DU2" s="18"/>
+      <c r="DV2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="DW2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="DW2" s="19" t="s">
+      <c r="DX2" s="17"/>
+      <c r="DY2" s="17"/>
+      <c r="DZ2" s="17"/>
+      <c r="EA2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="DX2" s="19"/>
-      <c r="DY2" s="19"/>
-      <c r="DZ2" s="19"/>
-      <c r="EA2" s="20" t="s">
+      <c r="EB2" s="18"/>
+      <c r="EC2" s="18"/>
+      <c r="ED2" s="18"/>
+      <c r="EE2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="EB2" s="20"/>
-      <c r="EC2" s="20"/>
-      <c r="ED2" s="20"/>
-      <c r="EE2" s="20" t="s">
+      <c r="EF2" s="18"/>
+      <c r="EG2" s="18"/>
+      <c r="EH2" s="18"/>
+      <c r="EI2" s="18"/>
+      <c r="EJ2" s="18"/>
+      <c r="EK2" s="18"/>
+      <c r="EL2" s="18"/>
+      <c r="EM2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="EF2" s="20"/>
-      <c r="EG2" s="20"/>
-      <c r="EH2" s="20"/>
-      <c r="EI2" s="20"/>
-      <c r="EJ2" s="20"/>
-      <c r="EK2" s="20"/>
-      <c r="EL2" s="20"/>
-      <c r="EM2" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="EN2" s="20"/>
-      <c r="EO2" s="20"/>
-      <c r="EP2" s="20"/>
-      <c r="EQ2" s="20"/>
-      <c r="ER2" s="20"/>
-      <c r="ES2" s="20"/>
-      <c r="ET2" s="20"/>
+      <c r="EN2" s="18"/>
+      <c r="EO2" s="18"/>
+      <c r="EP2" s="18"/>
+      <c r="EQ2" s="18"/>
+      <c r="ER2" s="18"/>
+      <c r="ES2" s="18"/>
+      <c r="ET2" s="18"/>
     </row>
     <row r="3" spans="1:150" x14ac:dyDescent="0.15">
-      <c r="A3" s="21"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="O3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="P3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="Q3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="R3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="S3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="T3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="U3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="V3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="W3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="X3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="Y3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="Y3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z3" s="21"/>
+      <c r="Z3" s="19"/>
       <c r="AA3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AC3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="AC3" s="8" t="s">
+      <c r="AD3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="AD3" s="8" t="s">
+      <c r="AE3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="AE3" s="8" t="s">
+      <c r="AF3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="AF3" s="8" t="s">
+      <c r="AG3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AG3" s="8" t="s">
+      <c r="AH3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AH3" s="8" t="s">
+      <c r="AI3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AI3" s="8" t="s">
+      <c r="AJ3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AJ3" s="8" t="s">
+      <c r="AK3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="AK3" s="8" t="s">
+      <c r="AL3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AL3" s="8" t="s">
+      <c r="AM3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AM3" s="8" t="s">
+      <c r="AN3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AN3" s="8" t="s">
+      <c r="AO3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AO3" s="8" t="s">
+      <c r="AP3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AP3" s="8" t="s">
+      <c r="AQ3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AQ3" s="8" t="s">
+      <c r="AR3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AR3" s="8" t="s">
+      <c r="AS3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AS3" s="8" t="s">
+      <c r="AT3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AT3" s="8" t="s">
+      <c r="AU3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AU3" s="8" t="s">
+      <c r="AV3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AV3" s="8" t="s">
+      <c r="AW3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AW3" s="8" t="s">
+      <c r="AX3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AX3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AY3" s="21"/>
+      <c r="AY3" s="19"/>
       <c r="AZ3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="BA3" s="8" t="s">
+      <c r="BB3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="BB3" s="8" t="s">
+      <c r="BC3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="BC3" s="8" t="s">
+      <c r="BD3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="BD3" s="8" t="s">
+      <c r="BE3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="BE3" s="8" t="s">
+      <c r="BF3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="BF3" s="8" t="s">
+      <c r="BG3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="BG3" s="8" t="s">
+      <c r="BH3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="BH3" s="8" t="s">
+      <c r="BI3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="BI3" s="8" t="s">
+      <c r="BJ3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="BJ3" s="8" t="s">
+      <c r="BK3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="BK3" s="8" t="s">
+      <c r="BL3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="BL3" s="8" t="s">
+      <c r="BM3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="BM3" s="8" t="s">
+      <c r="BN3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="BN3" s="8" t="s">
+      <c r="BO3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="BO3" s="8" t="s">
+      <c r="BP3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="BP3" s="8" t="s">
+      <c r="BQ3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="BQ3" s="8" t="s">
+      <c r="BR3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="BR3" s="8" t="s">
+      <c r="BS3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="BS3" s="8" t="s">
+      <c r="BT3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="BT3" s="8" t="s">
+      <c r="BU3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="BU3" s="8" t="s">
+      <c r="BV3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="BV3" s="8" t="s">
+      <c r="BW3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="BW3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="BX3" s="21"/>
+      <c r="BX3" s="19"/>
       <c r="BY3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="BZ3" s="8" t="s">
+      <c r="CA3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="CA3" s="8" t="s">
+      <c r="CB3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="CB3" s="8" t="s">
+      <c r="CC3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="CC3" s="8" t="s">
+      <c r="CD3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="CD3" s="8" t="s">
+      <c r="CE3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="CE3" s="8" t="s">
+      <c r="CF3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="CF3" s="8" t="s">
+      <c r="CG3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="CG3" s="8" t="s">
+      <c r="CH3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="CH3" s="8" t="s">
+      <c r="CI3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="CI3" s="8" t="s">
+      <c r="CJ3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="CJ3" s="8" t="s">
+      <c r="CK3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="CK3" s="8" t="s">
+      <c r="CL3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="CL3" s="8" t="s">
+      <c r="CM3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="CM3" s="8" t="s">
+      <c r="CN3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="CN3" s="8" t="s">
+      <c r="CO3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="CO3" s="8" t="s">
+      <c r="CP3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="CP3" s="8" t="s">
+      <c r="CQ3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="CQ3" s="8" t="s">
+      <c r="CR3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="CR3" s="8" t="s">
+      <c r="CS3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="CS3" s="8" t="s">
+      <c r="CT3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="CT3" s="8" t="s">
+      <c r="CU3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="CU3" s="8" t="s">
+      <c r="CV3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="CV3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="CW3" s="21"/>
+      <c r="CW3" s="19"/>
       <c r="CX3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="CY3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="CY3" s="8" t="s">
+      <c r="CZ3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="CZ3" s="8" t="s">
+      <c r="DA3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="DA3" s="8" t="s">
+      <c r="DB3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="DB3" s="8" t="s">
+      <c r="DC3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="DC3" s="8" t="s">
+      <c r="DD3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="DD3" s="8" t="s">
+      <c r="DE3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="DE3" s="8" t="s">
+      <c r="DF3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="DF3" s="8" t="s">
+      <c r="DG3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="DG3" s="8" t="s">
+      <c r="DH3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="DH3" s="8" t="s">
+      <c r="DI3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="DI3" s="8" t="s">
+      <c r="DJ3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="DJ3" s="8" t="s">
+      <c r="DK3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="DK3" s="8" t="s">
+      <c r="DL3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="DL3" s="8" t="s">
+      <c r="DM3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="DM3" s="8" t="s">
+      <c r="DN3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="DN3" s="8" t="s">
+      <c r="DO3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="DO3" s="8" t="s">
+      <c r="DP3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="DP3" s="8" t="s">
+      <c r="DQ3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="DQ3" s="8" t="s">
+      <c r="DR3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="DR3" s="8" t="s">
+      <c r="DS3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="DS3" s="8" t="s">
+      <c r="DT3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="DT3" s="8" t="s">
+      <c r="DU3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="DU3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="DV3" s="21"/>
+      <c r="DV3" s="19"/>
       <c r="DW3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="DX3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="DX3" s="8" t="s">
+      <c r="DY3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="DY3" s="8" t="s">
+      <c r="DZ3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="DZ3" s="8" t="s">
+      <c r="EA3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="EA3" s="8" t="s">
+      <c r="EB3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="EB3" s="8" t="s">
+      <c r="EC3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="EC3" s="8" t="s">
+      <c r="ED3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="ED3" s="8" t="s">
+      <c r="EE3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="EE3" s="8" t="s">
+      <c r="EF3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="EF3" s="8" t="s">
+      <c r="EG3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="EG3" s="8" t="s">
+      <c r="EH3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="EH3" s="8" t="s">
+      <c r="EI3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="EI3" s="8" t="s">
+      <c r="EJ3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="EJ3" s="8" t="s">
+      <c r="EK3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="EK3" s="8" t="s">
+      <c r="EL3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="EL3" s="8" t="s">
+      <c r="EM3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="EM3" s="8" t="s">
+      <c r="EN3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="EN3" s="8" t="s">
+      <c r="EO3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="EO3" s="8" t="s">
+      <c r="EP3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="EP3" s="8" t="s">
+      <c r="EQ3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="EQ3" s="8" t="s">
+      <c r="ER3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="ER3" s="8" t="s">
+      <c r="ES3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="ES3" s="8" t="s">
+      <c r="ET3" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="ET3" s="8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:150" x14ac:dyDescent="0.15">
-      <c r="A4" s="21"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AV4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AW4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AY4" s="19"/>
+      <c r="AZ4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="BA4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="BB4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="BC4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="BD4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="BE4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="BF4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="BG4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="BH4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="BI4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="BJ4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="BK4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="BL4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="BM4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="BN4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="BO4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="BP4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="BQ4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="BR4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="BS4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="BT4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="BU4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="BV4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="BW4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="BX4" s="19"/>
+      <c r="BY4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="BZ4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="CA4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="CB4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="CC4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="CD4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="CE4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="CF4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="CG4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="CH4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="CI4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="CJ4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="CK4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="CL4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="CM4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="CN4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="CO4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="CP4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="CQ4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="CR4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="CS4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="CT4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="CU4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="CV4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="CW4" s="19"/>
+      <c r="CX4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="CY4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="CZ4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="DA4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="DB4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="DC4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="DD4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="DE4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="DF4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="DG4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="DH4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="DI4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="DJ4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="DK4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="DL4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="DM4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="DN4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="DO4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="DP4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="DQ4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="DR4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="DS4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="DT4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="DU4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="DV4" s="19"/>
+      <c r="DW4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="DX4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="DY4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="DZ4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="EA4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="EB4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="EC4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="ED4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="EE4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="EF4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="EG4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="EH4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="EI4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="EJ4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="EK4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="EL4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="EM4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="EN4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="EO4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="EP4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="EQ4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="ER4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="ES4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="ET4" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:150" ht="54" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="W4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="X4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AM4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AN4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AP4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AQ4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AR4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AS4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AT4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AU4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AV4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AW4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AX4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AY4" s="21"/>
-      <c r="AZ4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="BA4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="BB4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="BC4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="BD4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="BE4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="BF4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="BG4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="BH4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="BI4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="BJ4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="BK4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="BL4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="BM4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="BN4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="BO4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="BP4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="BQ4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="BR4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="BS4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="BT4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="BU4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="BV4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="BW4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="BX4" s="21"/>
-      <c r="BY4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="BZ4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="CA4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="CB4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="CC4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="CD4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="CE4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="CF4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="CG4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="CH4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="CI4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="CJ4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="CK4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="CL4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="CM4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="CN4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="CO4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="CP4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="CQ4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="CR4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="CS4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="CT4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="CU4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="CV4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="CW4" s="21"/>
-      <c r="CX4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="CY4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="CZ4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="DA4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="DB4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="DC4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="DD4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="DE4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="DF4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="DG4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="DH4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="DI4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="DJ4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="DK4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="DL4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="DM4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="DN4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="DO4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="DP4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="DQ4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="DR4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="DS4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="DT4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="DU4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="DV4" s="21"/>
-      <c r="DW4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="DX4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="DY4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="DZ4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="EA4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="EB4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="EC4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="ED4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="EE4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="EF4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="EG4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="EH4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="EI4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="EJ4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="EK4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="EL4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="EM4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="EN4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="EO4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="EP4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="EQ4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="ER4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="ES4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="ET4" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:150" ht="54" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="B5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="T5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="U5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="W5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="X5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="Y5" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="Z5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Z5" s="2" t="s">
+      <c r="AA5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AB5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AC5" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AD5" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AE5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AF5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AF5" s="2" t="s">
+      <c r="AG5" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AG5" s="3" t="s">
+      <c r="AH5" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AH5" s="3" t="s">
+      <c r="AI5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AI5" s="3" t="s">
+      <c r="AJ5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="AJ5" s="3" t="s">
+      <c r="AK5" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AK5" s="3" t="s">
+      <c r="AL5" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AL5" s="2" t="s">
+      <c r="AM5" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AM5" s="3" t="s">
+      <c r="AN5" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AN5" s="3" t="s">
+      <c r="AO5" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AO5" s="3" t="s">
+      <c r="AP5" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AP5" s="3" t="s">
+      <c r="AQ5" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AQ5" s="3" t="s">
+      <c r="AR5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AR5" s="2" t="s">
+      <c r="AS5" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AS5" s="3" t="s">
+      <c r="AT5" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AT5" s="3" t="s">
+      <c r="AU5" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AU5" s="3" t="s">
+      <c r="AV5" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AV5" s="3" t="s">
+      <c r="AW5" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AW5" s="3" t="s">
+      <c r="AX5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AX5" s="2" t="s">
+      <c r="AY5" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AY5" s="3" t="s">
+      <c r="AZ5" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AZ5" s="3" t="s">
+      <c r="BA5" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="BA5" s="3" t="s">
+      <c r="BB5" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="BB5" s="3" t="s">
+      <c r="BC5" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="BC5" s="3" t="s">
+      <c r="BD5" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="BD5" s="2" t="s">
+      <c r="BE5" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="BE5" s="3" t="s">
+      <c r="BF5" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="BF5" s="3" t="s">
+      <c r="BG5" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="BG5" s="3" t="s">
+      <c r="BH5" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="BH5" s="3" t="s">
+      <c r="BI5" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="BI5" s="3" t="s">
+      <c r="BJ5" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="BJ5" s="2" t="s">
+      <c r="BK5" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="BK5" s="3" t="s">
+      <c r="BL5" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="BL5" s="3" t="s">
+      <c r="BM5" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="BM5" s="3" t="s">
+      <c r="BN5" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="BN5" s="3" t="s">
+      <c r="BO5" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="BO5" s="3" t="s">
+      <c r="BP5" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="BP5" s="2" t="s">
+      <c r="BQ5" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="BQ5" s="3" t="s">
+      <c r="BR5" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="BR5" s="3" t="s">
+      <c r="BS5" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="BS5" s="3" t="s">
+      <c r="BT5" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="BT5" s="3" t="s">
+      <c r="BU5" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="BU5" s="3" t="s">
+      <c r="BV5" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="BV5" s="2" t="s">
+      <c r="BW5" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="BW5" s="3" t="s">
+      <c r="BX5" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="BX5" s="3" t="s">
+      <c r="BY5" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="BY5" s="3" t="s">
+      <c r="BZ5" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="BZ5" s="3" t="s">
+      <c r="CA5" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="CA5" s="3" t="s">
+      <c r="CB5" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="CB5" s="2" t="s">
+      <c r="CC5" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="CC5" s="3" t="s">
+      <c r="CD5" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="CD5" s="3" t="s">
+      <c r="CE5" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="CE5" s="3" t="s">
+      <c r="CF5" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="CF5" s="3" t="s">
+      <c r="CG5" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="CG5" s="3" t="s">
+      <c r="CH5" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="CH5" s="2" t="s">
+      <c r="CI5" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="CI5" s="3" t="s">
+      <c r="CJ5" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="CJ5" s="3" t="s">
+      <c r="CK5" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="CK5" s="3" t="s">
+      <c r="CL5" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="CL5" s="3" t="s">
+      <c r="CM5" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="CM5" s="3" t="s">
+      <c r="CN5" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="CN5" s="4" t="s">
+      <c r="CO5" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="CO5" s="4" t="s">
+      <c r="CP5" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="CP5" s="4" t="s">
+      <c r="CQ5" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="CQ5" s="4" t="s">
+      <c r="CR5" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="CR5" s="4" t="s">
+      <c r="CS5" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="CS5" s="4" t="s">
+      <c r="CT5" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="CT5" s="4" t="s">
+      <c r="CU5" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="CU5" s="4" t="s">
+      <c r="CV5" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="CV5" s="4" t="s">
+      <c r="CW5" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="CW5" s="4" t="s">
+      <c r="CX5" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="CX5" s="4" t="s">
+      <c r="CY5" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="CY5" s="4" t="s">
+      <c r="CZ5" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="CZ5" s="4" t="s">
+      <c r="DA5" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="DA5" s="4" t="s">
+      <c r="DB5" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="DB5" s="4" t="s">
+      <c r="DC5" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="DC5" s="4" t="s">
+      <c r="DD5" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="DD5" s="4" t="s">
+      <c r="DE5" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="DE5" s="4" t="s">
+      <c r="DF5" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="DF5" s="4" t="s">
+      <c r="DG5" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="DG5" s="4" t="s">
+      <c r="DH5" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="DH5" s="4" t="s">
+      <c r="DI5" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="DI5" s="4" t="s">
+      <c r="DJ5" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="DJ5" s="4" t="s">
+      <c r="DK5" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="DK5" s="4" t="s">
+      <c r="DL5" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="DL5" s="4" t="s">
+      <c r="DM5" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="DM5" s="4" t="s">
+      <c r="DN5" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="DN5" s="4" t="s">
+      <c r="DO5" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="DO5" s="4" t="s">
+      <c r="DP5" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="DP5" s="4" t="s">
+      <c r="DQ5" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="DQ5" s="4" t="s">
+      <c r="DR5" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="DR5" s="4" t="s">
+      <c r="DS5" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="DS5" s="4" t="s">
+      <c r="DT5" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="DT5" s="4" t="s">
+      <c r="DU5" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="DU5" s="4" t="s">
+      <c r="DV5" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="DV5" s="4" t="s">
+      <c r="DW5" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="DW5" s="4" t="s">
+      <c r="DX5" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="DX5" s="4" t="s">
+      <c r="DY5" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="DY5" s="4" t="s">
+      <c r="DZ5" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="DZ5" s="4" t="s">
+      <c r="EA5" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="EA5" s="4" t="s">
+      <c r="EB5" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="EB5" s="4" t="s">
+      <c r="EC5" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="EC5" s="4" t="s">
+      <c r="ED5" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="ED5" s="4" t="s">
+      <c r="EE5" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="EE5" s="4" t="s">
+      <c r="EF5" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="EF5" s="4" t="s">
+      <c r="EG5" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="EG5" s="4" t="s">
+      <c r="EH5" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="EH5" s="4" t="s">
+      <c r="EI5" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="EI5" s="4" t="s">
+      <c r="EJ5" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="EJ5" s="4" t="s">
+      <c r="EK5" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="EK5" s="4" t="s">
+      <c r="EL5" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="EL5" s="4" t="s">
+      <c r="EM5" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="EM5" s="4" t="s">
+      <c r="EN5" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="EN5" s="4" t="s">
+      <c r="EO5" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="EO5" s="4" t="s">
+      <c r="EP5" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="EP5" s="4" t="s">
+      <c r="EQ5" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="EQ5" s="4" t="s">
+      <c r="ER5" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="ER5" s="4" t="s">
+      <c r="ES5" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="ES5" s="4" t="s">
+      <c r="ET5" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="ET5" s="5" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:150" x14ac:dyDescent="0.15">
@@ -21554,311 +21534,1205 @@
     </row>
     <row r="37" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="11"/>
-      <c r="V37" s="11"/>
-      <c r="W37" s="11"/>
-      <c r="X37" s="11"/>
-      <c r="Y37" s="11"/>
-      <c r="Z37" s="11"/>
-      <c r="AA37" s="11"/>
-      <c r="AB37" s="11"/>
-      <c r="AC37" s="11"/>
-      <c r="AD37" s="11"/>
-      <c r="AE37" s="11"/>
-      <c r="AF37" s="11"/>
-      <c r="AG37" s="11"/>
-      <c r="AH37" s="11"/>
-      <c r="AI37" s="11"/>
-      <c r="AJ37" s="11"/>
-      <c r="AK37" s="11"/>
-      <c r="AL37" s="11"/>
-      <c r="AM37" s="11"/>
-      <c r="AN37" s="11"/>
-      <c r="AO37" s="11"/>
-      <c r="AP37" s="11"/>
-      <c r="AQ37" s="11"/>
-      <c r="AR37" s="11"/>
-      <c r="AS37" s="11"/>
-      <c r="AT37" s="11"/>
-      <c r="AU37" s="11"/>
-      <c r="AV37" s="11"/>
-      <c r="AW37" s="11"/>
-      <c r="AX37" s="11"/>
-      <c r="AY37" s="11"/>
-      <c r="AZ37" s="11"/>
-      <c r="BA37" s="11"/>
-      <c r="BB37" s="11"/>
-      <c r="BC37" s="11"/>
-      <c r="BD37" s="11"/>
-      <c r="BE37" s="11"/>
-      <c r="BF37" s="11"/>
-      <c r="BG37" s="11"/>
-      <c r="BH37" s="11"/>
-      <c r="BI37" s="11"/>
-      <c r="BJ37" s="11"/>
-      <c r="BK37" s="11"/>
-      <c r="BL37" s="11"/>
-      <c r="BM37" s="11"/>
-      <c r="BN37" s="11"/>
-      <c r="BO37" s="11"/>
-      <c r="BP37" s="11"/>
-      <c r="BQ37" s="11"/>
-      <c r="BR37" s="11"/>
-      <c r="BS37" s="11"/>
-      <c r="BT37" s="11"/>
-      <c r="BU37" s="11"/>
-      <c r="BV37" s="11"/>
-      <c r="BW37" s="11"/>
-      <c r="BX37" s="11"/>
-      <c r="BY37" s="11"/>
-      <c r="BZ37" s="11"/>
-      <c r="CA37" s="11"/>
-      <c r="CB37" s="11"/>
-      <c r="CC37" s="11"/>
-      <c r="CD37" s="11"/>
-      <c r="CE37" s="11"/>
-      <c r="CF37" s="11"/>
-      <c r="CG37" s="11"/>
-      <c r="CH37" s="11"/>
-      <c r="CI37" s="11"/>
-      <c r="CJ37" s="11"/>
-      <c r="CK37" s="11"/>
-      <c r="CL37" s="11"/>
-      <c r="CM37" s="11"/>
-      <c r="CN37" s="11"/>
-      <c r="CO37" s="11"/>
-      <c r="CP37" s="11"/>
-      <c r="CQ37" s="11"/>
-      <c r="CR37" s="11"/>
-      <c r="CS37" s="11"/>
-      <c r="CT37" s="11"/>
-      <c r="CU37" s="11"/>
-      <c r="CV37" s="11"/>
-      <c r="CW37" s="11"/>
-      <c r="CX37" s="11"/>
-      <c r="CY37" s="11"/>
-      <c r="CZ37" s="11"/>
-      <c r="DA37" s="11"/>
-      <c r="DB37" s="11"/>
-      <c r="DC37" s="11"/>
-      <c r="DD37" s="11"/>
-      <c r="DE37" s="11"/>
-      <c r="DF37" s="11"/>
-      <c r="DG37" s="11"/>
-      <c r="DH37" s="11"/>
-      <c r="DI37" s="11"/>
-      <c r="DJ37" s="11"/>
-      <c r="DK37" s="11"/>
-      <c r="DL37" s="11"/>
-      <c r="DM37" s="11"/>
-      <c r="DN37" s="11"/>
-      <c r="DO37" s="11"/>
-      <c r="DP37" s="11"/>
-      <c r="DQ37" s="11"/>
-      <c r="DR37" s="11"/>
-      <c r="DS37" s="11"/>
-      <c r="DT37" s="11"/>
-      <c r="DU37" s="11"/>
-      <c r="DV37" s="11"/>
-      <c r="DW37" s="11"/>
-      <c r="DX37" s="11"/>
-      <c r="DY37" s="11"/>
-      <c r="DZ37" s="11"/>
-      <c r="EA37" s="11"/>
-      <c r="EB37" s="11"/>
-      <c r="EC37" s="11"/>
-      <c r="ED37" s="11"/>
-      <c r="EE37" s="11"/>
-      <c r="EF37" s="11"/>
-      <c r="EG37" s="11"/>
-      <c r="EH37" s="11"/>
-      <c r="EI37" s="11"/>
-      <c r="EJ37" s="11"/>
-      <c r="EK37" s="11"/>
-      <c r="EL37" s="11"/>
-      <c r="EM37" s="11"/>
-      <c r="EN37" s="11"/>
-      <c r="EO37" s="11"/>
-      <c r="EP37" s="11"/>
-      <c r="EQ37" s="11"/>
-      <c r="ER37" s="11"/>
-      <c r="ES37" s="11"/>
-      <c r="ET37" s="17"/>
+        <v>32</v>
+      </c>
+      <c r="B37" s="11" t="str">
+        <f>IFERROR(AVERAGE(B6:B36),"")</f>
+        <v/>
+      </c>
+      <c r="C37" s="11" t="str">
+        <f t="shared" ref="C37:BN37" si="0">IFERROR(AVERAGE(C6:C36),"")</f>
+        <v/>
+      </c>
+      <c r="D37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="U37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="W37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="X37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Y37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Z37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AA37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AC37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AD37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AE37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AF37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AG37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AH37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AJ37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AK37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AL37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AM37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AN37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AO37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AP37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AQ37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AR37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AS37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AT37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AU37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AW37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AX37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AY37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AZ37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BA37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BB37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BC37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BD37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BE37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BF37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BG37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BH37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BI37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BJ37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BK37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BL37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BM37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BN37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BO37" s="11" t="str">
+        <f t="shared" ref="BO37:DZ37" si="1">IFERROR(AVERAGE(BO6:BO36),"")</f>
+        <v/>
+      </c>
+      <c r="BP37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BQ37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BR37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BS37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BT37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BU37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BV37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BW37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BX37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BY37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BZ37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CA37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CB37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CC37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CD37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CE37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CF37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CG37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CH37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CI37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CJ37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CK37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CL37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CM37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CN37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CO37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CP37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CQ37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CR37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CS37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CT37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CU37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CV37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CW37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CX37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CY37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CZ37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DA37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DB37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DC37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DD37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DE37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DF37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DG37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DH37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DI37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DJ37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DK37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DL37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DM37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DN37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DO37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DP37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DQ37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DR37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DS37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DT37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DU37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DV37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DW37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DX37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DY37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DZ37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="EA37" s="11" t="str">
+        <f t="shared" ref="EA37:ET37" si="2">IFERROR(AVERAGE(EA6:EA36),"")</f>
+        <v/>
+      </c>
+      <c r="EB37" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EC37" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="ED37" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EE37" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EF37" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EG37" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EH37" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EI37" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EJ37" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EK37" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EL37" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EM37" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EN37" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EO37" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EP37" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EQ37" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="ER37" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="ES37" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="ET37" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="38" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A38" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="13"/>
-      <c r="W38" s="13"/>
-      <c r="X38" s="13"/>
-      <c r="Y38" s="13"/>
-      <c r="Z38" s="13"/>
-      <c r="AA38" s="13"/>
-      <c r="AB38" s="13"/>
-      <c r="AC38" s="13"/>
-      <c r="AD38" s="13"/>
-      <c r="AE38" s="13"/>
-      <c r="AF38" s="13"/>
-      <c r="AG38" s="13"/>
-      <c r="AH38" s="13"/>
-      <c r="AI38" s="13"/>
-      <c r="AJ38" s="13"/>
-      <c r="AK38" s="13"/>
-      <c r="AL38" s="13"/>
-      <c r="AM38" s="13"/>
-      <c r="AN38" s="13"/>
-      <c r="AO38" s="13"/>
-      <c r="AP38" s="13"/>
-      <c r="AQ38" s="13"/>
-      <c r="AR38" s="13"/>
-      <c r="AS38" s="13"/>
-      <c r="AT38" s="13"/>
-      <c r="AU38" s="13"/>
-      <c r="AV38" s="13"/>
-      <c r="AW38" s="13"/>
-      <c r="AX38" s="13"/>
-      <c r="AY38" s="13"/>
-      <c r="AZ38" s="13"/>
-      <c r="BA38" s="13"/>
-      <c r="BB38" s="13"/>
-      <c r="BC38" s="13"/>
-      <c r="BD38" s="13"/>
-      <c r="BE38" s="13"/>
-      <c r="BF38" s="13"/>
-      <c r="BG38" s="13"/>
-      <c r="BH38" s="13"/>
-      <c r="BI38" s="13"/>
-      <c r="BJ38" s="13"/>
-      <c r="BK38" s="13"/>
-      <c r="BL38" s="13"/>
-      <c r="BM38" s="13"/>
-      <c r="BN38" s="13"/>
-      <c r="BO38" s="13"/>
-      <c r="BP38" s="13"/>
-      <c r="BQ38" s="13"/>
-      <c r="BR38" s="13"/>
-      <c r="BS38" s="13"/>
-      <c r="BT38" s="13"/>
-      <c r="BU38" s="13"/>
-      <c r="BV38" s="13"/>
-      <c r="BW38" s="13"/>
-      <c r="BX38" s="13"/>
-      <c r="BY38" s="13"/>
-      <c r="BZ38" s="13"/>
-      <c r="CA38" s="13"/>
-      <c r="CB38" s="13"/>
-      <c r="CC38" s="13"/>
-      <c r="CD38" s="13"/>
-      <c r="CE38" s="13"/>
-      <c r="CF38" s="13"/>
-      <c r="CG38" s="13"/>
-      <c r="CH38" s="13"/>
-      <c r="CI38" s="13"/>
-      <c r="CJ38" s="13"/>
-      <c r="CK38" s="13"/>
-      <c r="CL38" s="13"/>
-      <c r="CM38" s="13"/>
-      <c r="CN38" s="13"/>
-      <c r="CO38" s="13"/>
-      <c r="CP38" s="13"/>
-      <c r="CQ38" s="13"/>
-      <c r="CR38" s="13"/>
-      <c r="CS38" s="13"/>
-      <c r="CT38" s="13"/>
-      <c r="CU38" s="13"/>
-      <c r="CV38" s="13"/>
-      <c r="CW38" s="13"/>
-      <c r="CX38" s="13"/>
-      <c r="CY38" s="13"/>
-      <c r="CZ38" s="13"/>
-      <c r="DA38" s="13"/>
-      <c r="DB38" s="13"/>
-      <c r="DC38" s="13"/>
-      <c r="DD38" s="13"/>
-      <c r="DE38" s="13"/>
-      <c r="DF38" s="13"/>
-      <c r="DG38" s="13"/>
-      <c r="DH38" s="13"/>
-      <c r="DI38" s="13"/>
-      <c r="DJ38" s="13"/>
-      <c r="DK38" s="13"/>
-      <c r="DL38" s="13"/>
-      <c r="DM38" s="13"/>
-      <c r="DN38" s="13"/>
-      <c r="DO38" s="13"/>
-      <c r="DP38" s="13"/>
-      <c r="DQ38" s="13"/>
-      <c r="DR38" s="13"/>
-      <c r="DS38" s="13"/>
-      <c r="DT38" s="13"/>
-      <c r="DU38" s="13"/>
-      <c r="DV38" s="13"/>
-      <c r="DW38" s="13"/>
-      <c r="DX38" s="13"/>
-      <c r="DY38" s="13"/>
-      <c r="DZ38" s="13"/>
-      <c r="EA38" s="13"/>
-      <c r="EB38" s="13"/>
-      <c r="EC38" s="13"/>
-      <c r="ED38" s="13"/>
-      <c r="EE38" s="13"/>
-      <c r="EF38" s="13"/>
-      <c r="EG38" s="13"/>
-      <c r="EH38" s="13"/>
-      <c r="EI38" s="13"/>
-      <c r="EJ38" s="13"/>
-      <c r="EK38" s="13"/>
-      <c r="EL38" s="13"/>
-      <c r="EM38" s="13"/>
-      <c r="EN38" s="13"/>
-      <c r="EO38" s="13"/>
-      <c r="EP38" s="13"/>
-      <c r="EQ38" s="13"/>
-      <c r="ER38" s="13"/>
-      <c r="ES38" s="13"/>
-      <c r="ET38" s="18"/>
+        <v>33</v>
+      </c>
+      <c r="B38" s="13" t="str">
+        <f>IFERROR(STDEVP(B6:B36),"")</f>
+        <v/>
+      </c>
+      <c r="C38" s="13" t="str">
+        <f t="shared" ref="C38:BN38" si="3">IFERROR(STDEVP(C6:C36),"")</f>
+        <v/>
+      </c>
+      <c r="D38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="R38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="T38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="U38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="W38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="X38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Y38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AA38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AB38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AC38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AD38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AE38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AF38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AG38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AH38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AI38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AJ38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AK38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AL38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AM38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AN38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AO38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AP38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AR38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AS38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AT38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AU38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AW38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AX38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AY38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AZ38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BA38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BB38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BC38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BD38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BE38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BF38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BG38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BH38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BI38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BJ38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BK38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BL38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BM38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BN38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BO38" s="13" t="str">
+        <f t="shared" ref="BO38:DZ38" si="4">IFERROR(STDEVP(BO6:BO36),"")</f>
+        <v/>
+      </c>
+      <c r="BP38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="BQ38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="BR38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="BS38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="BT38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="BU38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="BV38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="BW38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="BX38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="BY38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="BZ38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CA38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CB38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CC38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CD38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CE38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CF38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CG38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CH38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CI38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CJ38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CK38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CL38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CM38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CN38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CO38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CP38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CQ38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CR38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CS38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CT38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CU38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CV38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CW38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CX38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CY38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CZ38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DA38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DB38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DC38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DD38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DE38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DF38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DG38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DH38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DI38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DJ38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DK38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DL38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DM38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DN38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DO38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DP38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DQ38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DR38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DS38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DT38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DU38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DV38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DW38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DX38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DY38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="DZ38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="EA38" s="13" t="str">
+        <f t="shared" ref="EA38:ET38" si="5">IFERROR(STDEVP(EA6:EA36),"")</f>
+        <v/>
+      </c>
+      <c r="EB38" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EC38" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="ED38" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EE38" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EF38" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EG38" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EH38" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EI38" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EJ38" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EK38" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EL38" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EM38" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EN38" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EO38" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EP38" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="EQ38" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="ER38" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="ES38" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="ET38" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
     </row>
     <row r="39" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A39" s="14"/>
@@ -21962,451 +22836,451 @@
   <sheetData>
     <row r="1" spans="1:149" ht="54" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AX1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BC1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BD1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BE1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BF1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BG1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BH1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BI1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BK1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BL1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BM1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BN1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BO1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BP1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="BQ1" s="3" t="s">
+      <c r="BR1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="BR1" s="3" t="s">
+      <c r="BS1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="BS1" s="3" t="s">
+      <c r="BT1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="BT1" s="3" t="s">
+      <c r="BU1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BV1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="BV1" s="3" t="s">
+      <c r="BW1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="BW1" s="3" t="s">
+      <c r="BX1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="BX1" s="3" t="s">
+      <c r="BY1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="BY1" s="3" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="BZ1" s="3" t="s">
+      <c r="CA1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CB1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="CB1" s="3" t="s">
+      <c r="CC1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="CC1" s="3" t="s">
+      <c r="CD1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="CD1" s="3" t="s">
+      <c r="CE1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="CE1" s="3" t="s">
+      <c r="CF1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="CF1" s="3" t="s">
+      <c r="CG1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CH1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="CH1" s="3" t="s">
+      <c r="CI1" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="CI1" s="3" t="s">
+      <c r="CJ1" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="CJ1" s="3" t="s">
+      <c r="CK1" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="CK1" s="3" t="s">
+      <c r="CL1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="CL1" s="3" t="s">
+      <c r="CM1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="CM1" s="4" t="s">
+      <c r="CN1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="CN1" s="4" t="s">
+      <c r="CO1" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="CO1" s="4" t="s">
+      <c r="CP1" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="CP1" s="4" t="s">
+      <c r="CQ1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="CQ1" s="4" t="s">
+      <c r="CR1" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="CR1" s="4" t="s">
+      <c r="CS1" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="CS1" s="4" t="s">
+      <c r="CT1" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="CT1" s="4" t="s">
+      <c r="CU1" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="CU1" s="4" t="s">
+      <c r="CV1" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="CV1" s="4" t="s">
+      <c r="CW1" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="CW1" s="4" t="s">
+      <c r="CX1" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="CX1" s="4" t="s">
+      <c r="CY1" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="CY1" s="4" t="s">
+      <c r="CZ1" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="CZ1" s="4" t="s">
+      <c r="DA1" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="DA1" s="4" t="s">
+      <c r="DB1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="DB1" s="4" t="s">
+      <c r="DC1" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="DC1" s="4" t="s">
+      <c r="DD1" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="DD1" s="4" t="s">
+      <c r="DE1" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="DE1" s="4" t="s">
+      <c r="DF1" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="DF1" s="4" t="s">
+      <c r="DG1" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="DG1" s="4" t="s">
+      <c r="DH1" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="DH1" s="4" t="s">
+      <c r="DI1" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="DI1" s="4" t="s">
+      <c r="DJ1" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="DJ1" s="4" t="s">
+      <c r="DK1" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="DK1" s="4" t="s">
+      <c r="DL1" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="DL1" s="4" t="s">
+      <c r="DM1" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="DM1" s="4" t="s">
+      <c r="DN1" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="DN1" s="4" t="s">
+      <c r="DO1" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="DO1" s="4" t="s">
+      <c r="DP1" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="DP1" s="4" t="s">
+      <c r="DQ1" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="DQ1" s="4" t="s">
+      <c r="DR1" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="DR1" s="4" t="s">
+      <c r="DS1" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="DS1" s="4" t="s">
+      <c r="DT1" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="DT1" s="4" t="s">
+      <c r="DU1" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="DU1" s="4" t="s">
+      <c r="DV1" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="DV1" s="4" t="s">
+      <c r="DW1" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="DW1" s="4" t="s">
+      <c r="DX1" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="DX1" s="4" t="s">
+      <c r="DY1" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="DY1" s="4" t="s">
+      <c r="DZ1" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="DZ1" s="4" t="s">
+      <c r="EA1" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="EA1" s="4" t="s">
+      <c r="EB1" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="EB1" s="4" t="s">
+      <c r="EC1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="EC1" s="4" t="s">
+      <c r="ED1" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="ED1" s="4" t="s">
+      <c r="EE1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="EE1" s="4" t="s">
+      <c r="EF1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="EF1" s="4" t="s">
+      <c r="EG1" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="EG1" s="4" t="s">
+      <c r="EH1" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="EH1" s="4" t="s">
+      <c r="EI1" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="EI1" s="4" t="s">
+      <c r="EJ1" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="EJ1" s="4" t="s">
+      <c r="EK1" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="EK1" s="4" t="s">
+      <c r="EL1" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="EL1" s="4" t="s">
+      <c r="EM1" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="EM1" s="4" t="s">
+      <c r="EN1" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="EN1" s="4" t="s">
+      <c r="EO1" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="EO1" s="4" t="s">
+      <c r="EP1" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="EP1" s="4" t="s">
+      <c r="EQ1" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="EQ1" s="4" t="s">
+      <c r="ER1" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="ER1" s="4" t="s">
+      <c r="ES1" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="ES1" s="5" t="s">
-        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -22427,7 +23301,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B1">
         <v>6</v>
@@ -22451,79 +23325,79 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1"/>
     </row>

--- a/excel/finished/6高炉/高炉冷却壁温度月报表.xlsx
+++ b/excel/finished/6高炉/高炉冷却壁温度月报表.xlsx
@@ -22,12 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="199">
   <si>
     <t>高炉冷却壁温度月报表</t>
-  </si>
-  <si>
-    <t>时间</t>
   </si>
   <si>
     <t>29.080m</t>
@@ -615,6 +612,17 @@
     <t>version</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -892,15 +900,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -917,6 +916,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1226,1720 +1234,1723 @@
   <dimension ref="A1:ET53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:150" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="23" t="str">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="20" t="str">
         <f>IF(_metadata!B7="","",_metadata!B7)</f>
         <v/>
       </c>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="20" t="s">
+      <c r="X1" s="21"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="21"/>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="21"/>
-      <c r="AR1" s="21"/>
-      <c r="AS1" s="21"/>
-      <c r="AT1" s="21"/>
-      <c r="AU1" s="22"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="18"/>
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="18"/>
+      <c r="AP1" s="18"/>
+      <c r="AQ1" s="18"/>
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="18"/>
+      <c r="AT1" s="18"/>
+      <c r="AU1" s="19"/>
       <c r="AV1" s="12"/>
       <c r="AW1" s="12"/>
       <c r="AX1" s="12"/>
-      <c r="AY1" s="20" t="s">
+      <c r="AY1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="AZ1" s="21"/>
-      <c r="BA1" s="21"/>
-      <c r="BB1" s="21"/>
-      <c r="BC1" s="21"/>
-      <c r="BD1" s="21"/>
-      <c r="BE1" s="21"/>
-      <c r="BF1" s="21"/>
-      <c r="BG1" s="21"/>
-      <c r="BH1" s="21"/>
-      <c r="BI1" s="21"/>
-      <c r="BJ1" s="21"/>
-      <c r="BK1" s="21"/>
-      <c r="BL1" s="21"/>
-      <c r="BM1" s="21"/>
-      <c r="BN1" s="21"/>
-      <c r="BO1" s="21"/>
-      <c r="BP1" s="21"/>
-      <c r="BQ1" s="21"/>
-      <c r="BR1" s="21"/>
-      <c r="BS1" s="21"/>
-      <c r="BT1" s="22"/>
+      <c r="AZ1" s="18"/>
+      <c r="BA1" s="18"/>
+      <c r="BB1" s="18"/>
+      <c r="BC1" s="18"/>
+      <c r="BD1" s="18"/>
+      <c r="BE1" s="18"/>
+      <c r="BF1" s="18"/>
+      <c r="BG1" s="18"/>
+      <c r="BH1" s="18"/>
+      <c r="BI1" s="18"/>
+      <c r="BJ1" s="18"/>
+      <c r="BK1" s="18"/>
+      <c r="BL1" s="18"/>
+      <c r="BM1" s="18"/>
+      <c r="BN1" s="18"/>
+      <c r="BO1" s="18"/>
+      <c r="BP1" s="18"/>
+      <c r="BQ1" s="18"/>
+      <c r="BR1" s="18"/>
+      <c r="BS1" s="18"/>
+      <c r="BT1" s="19"/>
       <c r="BU1" s="12"/>
       <c r="BV1" s="12"/>
       <c r="BW1" s="12"/>
-      <c r="BX1" s="20" t="s">
+      <c r="BX1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="BY1" s="21"/>
-      <c r="BZ1" s="21"/>
-      <c r="CA1" s="21"/>
-      <c r="CB1" s="21"/>
-      <c r="CC1" s="21"/>
-      <c r="CD1" s="21"/>
-      <c r="CE1" s="21"/>
-      <c r="CF1" s="21"/>
-      <c r="CG1" s="21"/>
-      <c r="CH1" s="21"/>
-      <c r="CI1" s="21"/>
-      <c r="CJ1" s="21"/>
-      <c r="CK1" s="21"/>
-      <c r="CL1" s="21"/>
-      <c r="CM1" s="21"/>
-      <c r="CN1" s="21"/>
-      <c r="CO1" s="21"/>
-      <c r="CP1" s="21"/>
-      <c r="CQ1" s="21"/>
-      <c r="CR1" s="21"/>
-      <c r="CS1" s="22"/>
+      <c r="BY1" s="18"/>
+      <c r="BZ1" s="18"/>
+      <c r="CA1" s="18"/>
+      <c r="CB1" s="18"/>
+      <c r="CC1" s="18"/>
+      <c r="CD1" s="18"/>
+      <c r="CE1" s="18"/>
+      <c r="CF1" s="18"/>
+      <c r="CG1" s="18"/>
+      <c r="CH1" s="18"/>
+      <c r="CI1" s="18"/>
+      <c r="CJ1" s="18"/>
+      <c r="CK1" s="18"/>
+      <c r="CL1" s="18"/>
+      <c r="CM1" s="18"/>
+      <c r="CN1" s="18"/>
+      <c r="CO1" s="18"/>
+      <c r="CP1" s="18"/>
+      <c r="CQ1" s="18"/>
+      <c r="CR1" s="18"/>
+      <c r="CS1" s="19"/>
       <c r="CT1" s="12"/>
       <c r="CU1" s="12"/>
       <c r="CV1" s="12"/>
-      <c r="CW1" s="20" t="s">
+      <c r="CW1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="CX1" s="21"/>
-      <c r="CY1" s="21"/>
-      <c r="CZ1" s="21"/>
-      <c r="DA1" s="21"/>
-      <c r="DB1" s="21"/>
-      <c r="DC1" s="21"/>
-      <c r="DD1" s="21"/>
-      <c r="DE1" s="21"/>
-      <c r="DF1" s="21"/>
-      <c r="DG1" s="21"/>
-      <c r="DH1" s="21"/>
-      <c r="DI1" s="21"/>
-      <c r="DJ1" s="21"/>
-      <c r="DK1" s="21"/>
-      <c r="DL1" s="21"/>
-      <c r="DM1" s="21"/>
-      <c r="DN1" s="21"/>
-      <c r="DO1" s="21"/>
-      <c r="DP1" s="21"/>
-      <c r="DQ1" s="21"/>
-      <c r="DR1" s="22"/>
+      <c r="CX1" s="18"/>
+      <c r="CY1" s="18"/>
+      <c r="CZ1" s="18"/>
+      <c r="DA1" s="18"/>
+      <c r="DB1" s="18"/>
+      <c r="DC1" s="18"/>
+      <c r="DD1" s="18"/>
+      <c r="DE1" s="18"/>
+      <c r="DF1" s="18"/>
+      <c r="DG1" s="18"/>
+      <c r="DH1" s="18"/>
+      <c r="DI1" s="18"/>
+      <c r="DJ1" s="18"/>
+      <c r="DK1" s="18"/>
+      <c r="DL1" s="18"/>
+      <c r="DM1" s="18"/>
+      <c r="DN1" s="18"/>
+      <c r="DO1" s="18"/>
+      <c r="DP1" s="18"/>
+      <c r="DQ1" s="18"/>
+      <c r="DR1" s="19"/>
       <c r="DS1" s="12"/>
       <c r="DT1" s="12"/>
       <c r="DU1" s="12"/>
-      <c r="DV1" s="20" t="s">
+      <c r="DV1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="DW1" s="21"/>
-      <c r="DX1" s="21"/>
-      <c r="DY1" s="21"/>
-      <c r="DZ1" s="21"/>
-      <c r="EA1" s="21"/>
-      <c r="EB1" s="21"/>
-      <c r="EC1" s="21"/>
-      <c r="ED1" s="21"/>
-      <c r="EE1" s="21"/>
-      <c r="EF1" s="21"/>
-      <c r="EG1" s="21"/>
-      <c r="EH1" s="21"/>
-      <c r="EI1" s="21"/>
-      <c r="EJ1" s="21"/>
-      <c r="EK1" s="21"/>
-      <c r="EL1" s="21"/>
-      <c r="EM1" s="21"/>
-      <c r="EN1" s="21"/>
-      <c r="EO1" s="21"/>
-      <c r="EP1" s="21"/>
-      <c r="EQ1" s="22"/>
+      <c r="DW1" s="18"/>
+      <c r="DX1" s="18"/>
+      <c r="DY1" s="18"/>
+      <c r="DZ1" s="18"/>
+      <c r="EA1" s="18"/>
+      <c r="EB1" s="18"/>
+      <c r="EC1" s="18"/>
+      <c r="ED1" s="18"/>
+      <c r="EE1" s="18"/>
+      <c r="EF1" s="18"/>
+      <c r="EG1" s="18"/>
+      <c r="EH1" s="18"/>
+      <c r="EI1" s="18"/>
+      <c r="EJ1" s="18"/>
+      <c r="EK1" s="18"/>
+      <c r="EL1" s="18"/>
+      <c r="EM1" s="18"/>
+      <c r="EN1" s="18"/>
+      <c r="EO1" s="18"/>
+      <c r="EP1" s="18"/>
+      <c r="EQ1" s="19"/>
       <c r="ER1" s="12"/>
       <c r="ES1" s="12"/>
       <c r="ET1" s="12"/>
     </row>
     <row r="2" spans="1:150" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18" t="s">
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="19" t="s">
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="AA2" s="17" t="s">
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="18" t="s">
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18" t="s">
+      <c r="AJ2" s="24"/>
+      <c r="AK2" s="24"/>
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="24"/>
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="24"/>
+      <c r="AQ2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="18"/>
-      <c r="AO2" s="18"/>
-      <c r="AP2" s="18"/>
-      <c r="AQ2" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR2" s="18"/>
-      <c r="AS2" s="18"/>
-      <c r="AT2" s="18"/>
-      <c r="AU2" s="18"/>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="18"/>
-      <c r="AX2" s="18"/>
-      <c r="AY2" s="19" t="s">
+      <c r="AR2" s="24"/>
+      <c r="AS2" s="24"/>
+      <c r="AT2" s="24"/>
+      <c r="AU2" s="24"/>
+      <c r="AV2" s="24"/>
+      <c r="AW2" s="24"/>
+      <c r="AX2" s="24"/>
+      <c r="AY2" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="AZ2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="AZ2" s="17" t="s">
+      <c r="BA2" s="23"/>
+      <c r="BB2" s="23"/>
+      <c r="BC2" s="23"/>
+      <c r="BD2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="BA2" s="17"/>
-      <c r="BB2" s="17"/>
-      <c r="BC2" s="17"/>
-      <c r="BD2" s="18" t="s">
+      <c r="BE2" s="24"/>
+      <c r="BF2" s="24"/>
+      <c r="BG2" s="24"/>
+      <c r="BH2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="BE2" s="18"/>
-      <c r="BF2" s="18"/>
-      <c r="BG2" s="18"/>
-      <c r="BH2" s="18" t="s">
+      <c r="BI2" s="24"/>
+      <c r="BJ2" s="24"/>
+      <c r="BK2" s="24"/>
+      <c r="BL2" s="24"/>
+      <c r="BM2" s="24"/>
+      <c r="BN2" s="24"/>
+      <c r="BO2" s="24"/>
+      <c r="BP2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="BI2" s="18"/>
-      <c r="BJ2" s="18"/>
-      <c r="BK2" s="18"/>
-      <c r="BL2" s="18"/>
-      <c r="BM2" s="18"/>
-      <c r="BN2" s="18"/>
-      <c r="BO2" s="18"/>
-      <c r="BP2" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="BQ2" s="18"/>
-      <c r="BR2" s="18"/>
-      <c r="BS2" s="18"/>
-      <c r="BT2" s="18"/>
-      <c r="BU2" s="18"/>
-      <c r="BV2" s="18"/>
-      <c r="BW2" s="18"/>
-      <c r="BX2" s="19" t="s">
+      <c r="BQ2" s="24"/>
+      <c r="BR2" s="24"/>
+      <c r="BS2" s="24"/>
+      <c r="BT2" s="24"/>
+      <c r="BU2" s="24"/>
+      <c r="BV2" s="24"/>
+      <c r="BW2" s="24"/>
+      <c r="BX2" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="BY2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="BY2" s="17" t="s">
+      <c r="BZ2" s="23"/>
+      <c r="CA2" s="23"/>
+      <c r="CB2" s="23"/>
+      <c r="CC2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="BZ2" s="17"/>
-      <c r="CA2" s="17"/>
-      <c r="CB2" s="17"/>
-      <c r="CC2" s="18" t="s">
+      <c r="CD2" s="24"/>
+      <c r="CE2" s="24"/>
+      <c r="CF2" s="24"/>
+      <c r="CG2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="CD2" s="18"/>
-      <c r="CE2" s="18"/>
-      <c r="CF2" s="18"/>
-      <c r="CG2" s="18" t="s">
+      <c r="CH2" s="24"/>
+      <c r="CI2" s="24"/>
+      <c r="CJ2" s="24"/>
+      <c r="CK2" s="24"/>
+      <c r="CL2" s="24"/>
+      <c r="CM2" s="24"/>
+      <c r="CN2" s="24"/>
+      <c r="CO2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="CH2" s="18"/>
-      <c r="CI2" s="18"/>
-      <c r="CJ2" s="18"/>
-      <c r="CK2" s="18"/>
-      <c r="CL2" s="18"/>
-      <c r="CM2" s="18"/>
-      <c r="CN2" s="18"/>
-      <c r="CO2" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="CP2" s="18"/>
-      <c r="CQ2" s="18"/>
-      <c r="CR2" s="18"/>
-      <c r="CS2" s="18"/>
-      <c r="CT2" s="18"/>
-      <c r="CU2" s="18"/>
-      <c r="CV2" s="18"/>
-      <c r="CW2" s="19" t="s">
+      <c r="CP2" s="24"/>
+      <c r="CQ2" s="24"/>
+      <c r="CR2" s="24"/>
+      <c r="CS2" s="24"/>
+      <c r="CT2" s="24"/>
+      <c r="CU2" s="24"/>
+      <c r="CV2" s="24"/>
+      <c r="CW2" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="CX2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="CX2" s="17" t="s">
+      <c r="CY2" s="23"/>
+      <c r="CZ2" s="23"/>
+      <c r="DA2" s="23"/>
+      <c r="DB2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="CY2" s="17"/>
-      <c r="CZ2" s="17"/>
-      <c r="DA2" s="17"/>
-      <c r="DB2" s="18" t="s">
+      <c r="DC2" s="24"/>
+      <c r="DD2" s="24"/>
+      <c r="DE2" s="24"/>
+      <c r="DF2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="DC2" s="18"/>
-      <c r="DD2" s="18"/>
-      <c r="DE2" s="18"/>
-      <c r="DF2" s="18" t="s">
+      <c r="DG2" s="24"/>
+      <c r="DH2" s="24"/>
+      <c r="DI2" s="24"/>
+      <c r="DJ2" s="24"/>
+      <c r="DK2" s="24"/>
+      <c r="DL2" s="24"/>
+      <c r="DM2" s="24"/>
+      <c r="DN2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="DG2" s="18"/>
-      <c r="DH2" s="18"/>
-      <c r="DI2" s="18"/>
-      <c r="DJ2" s="18"/>
-      <c r="DK2" s="18"/>
-      <c r="DL2" s="18"/>
-      <c r="DM2" s="18"/>
-      <c r="DN2" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="DO2" s="18"/>
-      <c r="DP2" s="18"/>
-      <c r="DQ2" s="18"/>
-      <c r="DR2" s="18"/>
-      <c r="DS2" s="18"/>
-      <c r="DT2" s="18"/>
-      <c r="DU2" s="18"/>
-      <c r="DV2" s="19" t="s">
+      <c r="DO2" s="24"/>
+      <c r="DP2" s="24"/>
+      <c r="DQ2" s="24"/>
+      <c r="DR2" s="24"/>
+      <c r="DS2" s="24"/>
+      <c r="DT2" s="24"/>
+      <c r="DU2" s="24"/>
+      <c r="DV2" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="DW2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="DW2" s="17" t="s">
+      <c r="DX2" s="23"/>
+      <c r="DY2" s="23"/>
+      <c r="DZ2" s="23"/>
+      <c r="EA2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="DX2" s="17"/>
-      <c r="DY2" s="17"/>
-      <c r="DZ2" s="17"/>
-      <c r="EA2" s="18" t="s">
+      <c r="EB2" s="24"/>
+      <c r="EC2" s="24"/>
+      <c r="ED2" s="24"/>
+      <c r="EE2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="EB2" s="18"/>
-      <c r="EC2" s="18"/>
-      <c r="ED2" s="18"/>
-      <c r="EE2" s="18" t="s">
+      <c r="EF2" s="24"/>
+      <c r="EG2" s="24"/>
+      <c r="EH2" s="24"/>
+      <c r="EI2" s="24"/>
+      <c r="EJ2" s="24"/>
+      <c r="EK2" s="24"/>
+      <c r="EL2" s="24"/>
+      <c r="EM2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="EF2" s="18"/>
-      <c r="EG2" s="18"/>
-      <c r="EH2" s="18"/>
-      <c r="EI2" s="18"/>
-      <c r="EJ2" s="18"/>
-      <c r="EK2" s="18"/>
-      <c r="EL2" s="18"/>
-      <c r="EM2" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="EN2" s="18"/>
-      <c r="EO2" s="18"/>
-      <c r="EP2" s="18"/>
-      <c r="EQ2" s="18"/>
-      <c r="ER2" s="18"/>
-      <c r="ES2" s="18"/>
-      <c r="ET2" s="18"/>
+      <c r="EN2" s="24"/>
+      <c r="EO2" s="24"/>
+      <c r="EP2" s="24"/>
+      <c r="EQ2" s="24"/>
+      <c r="ER2" s="24"/>
+      <c r="ES2" s="24"/>
+      <c r="ET2" s="24"/>
     </row>
     <row r="3" spans="1:150" x14ac:dyDescent="0.15">
-      <c r="A3" s="19"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="O3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="P3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="Q3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="R3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="S3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="T3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="U3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="V3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="W3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="X3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="Y3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Y3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z3" s="19"/>
+      <c r="Z3" s="25"/>
       <c r="AA3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AC3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="AC3" s="8" t="s">
+      <c r="AD3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="AD3" s="8" t="s">
+      <c r="AE3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="AE3" s="8" t="s">
+      <c r="AF3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="AF3" s="8" t="s">
+      <c r="AG3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="AG3" s="8" t="s">
+      <c r="AH3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AH3" s="8" t="s">
+      <c r="AI3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AI3" s="8" t="s">
+      <c r="AJ3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AJ3" s="8" t="s">
+      <c r="AK3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AK3" s="8" t="s">
+      <c r="AL3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="AL3" s="8" t="s">
+      <c r="AM3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AM3" s="8" t="s">
+      <c r="AN3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AN3" s="8" t="s">
+      <c r="AO3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AO3" s="8" t="s">
+      <c r="AP3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AP3" s="8" t="s">
+      <c r="AQ3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AQ3" s="8" t="s">
+      <c r="AR3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AR3" s="8" t="s">
+      <c r="AS3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AS3" s="8" t="s">
+      <c r="AT3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AT3" s="8" t="s">
+      <c r="AU3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AU3" s="8" t="s">
+      <c r="AV3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AV3" s="8" t="s">
+      <c r="AW3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AW3" s="8" t="s">
+      <c r="AX3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AX3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AY3" s="19"/>
+      <c r="AY3" s="25"/>
       <c r="AZ3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="BA3" s="8" t="s">
+      <c r="BB3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="BB3" s="8" t="s">
+      <c r="BC3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="8" t="s">
+      <c r="BD3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="BD3" s="8" t="s">
+      <c r="BE3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="BE3" s="8" t="s">
+      <c r="BF3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="BF3" s="8" t="s">
+      <c r="BG3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="BG3" s="8" t="s">
+      <c r="BH3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="BH3" s="8" t="s">
+      <c r="BI3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="BI3" s="8" t="s">
+      <c r="BJ3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="BJ3" s="8" t="s">
+      <c r="BK3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="BK3" s="8" t="s">
+      <c r="BL3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="BL3" s="8" t="s">
+      <c r="BM3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="BM3" s="8" t="s">
+      <c r="BN3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="BN3" s="8" t="s">
+      <c r="BO3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="BO3" s="8" t="s">
+      <c r="BP3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="BP3" s="8" t="s">
+      <c r="BQ3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="BQ3" s="8" t="s">
+      <c r="BR3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="BR3" s="8" t="s">
+      <c r="BS3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="BS3" s="8" t="s">
+      <c r="BT3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="BT3" s="8" t="s">
+      <c r="BU3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="BU3" s="8" t="s">
+      <c r="BV3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="BV3" s="8" t="s">
+      <c r="BW3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="BW3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="BX3" s="19"/>
+      <c r="BX3" s="25"/>
       <c r="BY3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="BZ3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="BZ3" s="8" t="s">
+      <c r="CA3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="CA3" s="8" t="s">
+      <c r="CB3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="CB3" s="8" t="s">
+      <c r="CC3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="CC3" s="8" t="s">
+      <c r="CD3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="CD3" s="8" t="s">
+      <c r="CE3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="CE3" s="8" t="s">
+      <c r="CF3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="CF3" s="8" t="s">
+      <c r="CG3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="CG3" s="8" t="s">
+      <c r="CH3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="CH3" s="8" t="s">
+      <c r="CI3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="CI3" s="8" t="s">
+      <c r="CJ3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="CJ3" s="8" t="s">
+      <c r="CK3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="CK3" s="8" t="s">
+      <c r="CL3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="CL3" s="8" t="s">
+      <c r="CM3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="CM3" s="8" t="s">
+      <c r="CN3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="CN3" s="8" t="s">
+      <c r="CO3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="CO3" s="8" t="s">
+      <c r="CP3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="CP3" s="8" t="s">
+      <c r="CQ3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="CQ3" s="8" t="s">
+      <c r="CR3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="CR3" s="8" t="s">
+      <c r="CS3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="CS3" s="8" t="s">
+      <c r="CT3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="CT3" s="8" t="s">
+      <c r="CU3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="CU3" s="8" t="s">
+      <c r="CV3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="CV3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="CW3" s="19"/>
+      <c r="CW3" s="25"/>
       <c r="CX3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="CY3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="CY3" s="8" t="s">
+      <c r="CZ3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="CZ3" s="8" t="s">
+      <c r="DA3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="DA3" s="8" t="s">
+      <c r="DB3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="DB3" s="8" t="s">
+      <c r="DC3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="DC3" s="8" t="s">
+      <c r="DD3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="DD3" s="8" t="s">
+      <c r="DE3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="DE3" s="8" t="s">
+      <c r="DF3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="DF3" s="8" t="s">
+      <c r="DG3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="DG3" s="8" t="s">
+      <c r="DH3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="DH3" s="8" t="s">
+      <c r="DI3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="DI3" s="8" t="s">
+      <c r="DJ3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="DJ3" s="8" t="s">
+      <c r="DK3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="DK3" s="8" t="s">
+      <c r="DL3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="DL3" s="8" t="s">
+      <c r="DM3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="DM3" s="8" t="s">
+      <c r="DN3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="DN3" s="8" t="s">
+      <c r="DO3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="DO3" s="8" t="s">
+      <c r="DP3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="DP3" s="8" t="s">
+      <c r="DQ3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="DQ3" s="8" t="s">
+      <c r="DR3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="DR3" s="8" t="s">
+      <c r="DS3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="DS3" s="8" t="s">
+      <c r="DT3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="DT3" s="8" t="s">
+      <c r="DU3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="DU3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="DV3" s="19"/>
+      <c r="DV3" s="25"/>
       <c r="DW3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="DX3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="DX3" s="8" t="s">
+      <c r="DY3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="DY3" s="8" t="s">
+      <c r="DZ3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="DZ3" s="8" t="s">
+      <c r="EA3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="EA3" s="8" t="s">
+      <c r="EB3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="EB3" s="8" t="s">
+      <c r="EC3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="EC3" s="8" t="s">
+      <c r="ED3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="ED3" s="8" t="s">
+      <c r="EE3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="EE3" s="8" t="s">
+      <c r="EF3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="EF3" s="8" t="s">
+      <c r="EG3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="EG3" s="8" t="s">
+      <c r="EH3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="EH3" s="8" t="s">
+      <c r="EI3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="EI3" s="8" t="s">
+      <c r="EJ3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="EJ3" s="8" t="s">
+      <c r="EK3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="EK3" s="8" t="s">
+      <c r="EL3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="EL3" s="8" t="s">
+      <c r="EM3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="EM3" s="8" t="s">
+      <c r="EN3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="EN3" s="8" t="s">
+      <c r="EO3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="EO3" s="8" t="s">
+      <c r="EP3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="EP3" s="8" t="s">
+      <c r="EQ3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="EQ3" s="8" t="s">
+      <c r="ER3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="ER3" s="8" t="s">
+      <c r="ES3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="ES3" s="8" t="s">
+      <c r="ET3" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="ET3" s="8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:150" x14ac:dyDescent="0.15">
-      <c r="A4" s="19"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z4" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="Z4" s="25"/>
       <c r="AA4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AS4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AU4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AX4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AY4" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="AY4" s="25"/>
       <c r="AZ4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BE4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BF4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BG4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BH4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BI4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BJ4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BK4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BL4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BM4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BN4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BO4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BP4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BQ4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BR4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BS4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BT4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BU4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BV4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BW4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="BX4" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="BX4" s="25"/>
       <c r="BY4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BZ4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="CA4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="CB4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="CC4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="CD4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="CE4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="CF4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="CG4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="CH4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="CI4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="CJ4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="CK4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="CL4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="CM4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="CN4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="CO4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="CP4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="CQ4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="CR4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="CS4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="CT4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="CU4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="CV4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="CW4" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="CW4" s="25"/>
       <c r="CX4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="CY4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="CZ4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="DA4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="DB4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="DC4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="DD4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="DE4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="DF4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="DG4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="DH4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="DI4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="DJ4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="DK4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="DL4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="DM4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="DN4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="DO4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="DP4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="DQ4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="DR4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="DS4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="DT4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="DU4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="DV4" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="DV4" s="25"/>
       <c r="DW4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="DX4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="DY4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="DZ4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="EA4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="EB4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="EC4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="ED4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="EE4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="EF4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="EG4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="EH4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="EI4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="EJ4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="EK4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="EL4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="EM4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="EN4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="EO4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="EP4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="EQ4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="ER4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="ES4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="ET4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:150" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="T5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="U5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="W5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="X5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="Y5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="Z5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Z5" s="2" t="s">
+      <c r="AA5" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AB5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AC5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AD5" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AE5" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AF5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AF5" s="2" t="s">
+      <c r="AG5" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AG5" s="3" t="s">
+      <c r="AH5" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AH5" s="3" t="s">
+      <c r="AI5" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AI5" s="3" t="s">
+      <c r="AJ5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AJ5" s="3" t="s">
+      <c r="AK5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="AK5" s="3" t="s">
+      <c r="AL5" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AL5" s="2" t="s">
+      <c r="AM5" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AM5" s="3" t="s">
+      <c r="AN5" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AN5" s="3" t="s">
+      <c r="AO5" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AO5" s="3" t="s">
+      <c r="AP5" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AP5" s="3" t="s">
+      <c r="AQ5" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AQ5" s="3" t="s">
+      <c r="AR5" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AR5" s="2" t="s">
+      <c r="AS5" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AS5" s="3" t="s">
+      <c r="AT5" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AT5" s="3" t="s">
+      <c r="AU5" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AU5" s="3" t="s">
+      <c r="AV5" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AV5" s="3" t="s">
+      <c r="AW5" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AW5" s="3" t="s">
+      <c r="AX5" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AX5" s="2" t="s">
+      <c r="AY5" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AY5" s="3" t="s">
+      <c r="AZ5" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AZ5" s="3" t="s">
+      <c r="BA5" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="BA5" s="3" t="s">
+      <c r="BB5" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="BB5" s="3" t="s">
+      <c r="BC5" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="BC5" s="3" t="s">
+      <c r="BD5" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="BD5" s="2" t="s">
+      <c r="BE5" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="BE5" s="3" t="s">
+      <c r="BF5" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="BF5" s="3" t="s">
+      <c r="BG5" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="BG5" s="3" t="s">
+      <c r="BH5" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="BH5" s="3" t="s">
+      <c r="BI5" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="BI5" s="3" t="s">
+      <c r="BJ5" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="BJ5" s="2" t="s">
+      <c r="BK5" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="BK5" s="3" t="s">
+      <c r="BL5" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="BL5" s="3" t="s">
+      <c r="BM5" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="BM5" s="3" t="s">
+      <c r="BN5" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="BN5" s="3" t="s">
+      <c r="BO5" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="BO5" s="3" t="s">
+      <c r="BP5" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="BP5" s="2" t="s">
+      <c r="BQ5" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="BQ5" s="3" t="s">
+      <c r="BR5" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="BR5" s="3" t="s">
+      <c r="BS5" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="BS5" s="3" t="s">
+      <c r="BT5" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="BT5" s="3" t="s">
+      <c r="BU5" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="BU5" s="3" t="s">
+      <c r="BV5" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="BV5" s="2" t="s">
+      <c r="BW5" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="BW5" s="3" t="s">
+      <c r="BX5" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="BX5" s="3" t="s">
+      <c r="BY5" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="BY5" s="3" t="s">
+      <c r="BZ5" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="BZ5" s="3" t="s">
+      <c r="CA5" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="CA5" s="3" t="s">
+      <c r="CB5" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CB5" s="2" t="s">
+      <c r="CC5" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="CC5" s="3" t="s">
+      <c r="CD5" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="CD5" s="3" t="s">
+      <c r="CE5" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="CE5" s="3" t="s">
+      <c r="CF5" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="CF5" s="3" t="s">
+      <c r="CG5" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="CG5" s="3" t="s">
+      <c r="CH5" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="CH5" s="2" t="s">
+      <c r="CI5" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="CI5" s="3" t="s">
+      <c r="CJ5" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="CJ5" s="3" t="s">
+      <c r="CK5" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="CK5" s="3" t="s">
+      <c r="CL5" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="CL5" s="3" t="s">
+      <c r="CM5" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="CM5" s="3" t="s">
+      <c r="CN5" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="CN5" s="4" t="s">
+      <c r="CO5" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="CO5" s="4" t="s">
+      <c r="CP5" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="CP5" s="4" t="s">
+      <c r="CQ5" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="CQ5" s="4" t="s">
+      <c r="CR5" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="CR5" s="4" t="s">
+      <c r="CS5" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="CS5" s="4" t="s">
+      <c r="CT5" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="CT5" s="4" t="s">
+      <c r="CU5" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="CU5" s="4" t="s">
+      <c r="CV5" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="CV5" s="4" t="s">
+      <c r="CW5" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="CW5" s="4" t="s">
+      <c r="CX5" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="CX5" s="4" t="s">
+      <c r="CY5" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="CY5" s="4" t="s">
+      <c r="CZ5" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="CZ5" s="4" t="s">
+      <c r="DA5" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="DA5" s="4" t="s">
+      <c r="DB5" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="DB5" s="4" t="s">
+      <c r="DC5" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="DC5" s="4" t="s">
+      <c r="DD5" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="DD5" s="4" t="s">
+      <c r="DE5" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="DE5" s="4" t="s">
+      <c r="DF5" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="DF5" s="4" t="s">
+      <c r="DG5" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="DG5" s="4" t="s">
+      <c r="DH5" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="DH5" s="4" t="s">
+      <c r="DI5" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="DI5" s="4" t="s">
+      <c r="DJ5" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="DJ5" s="4" t="s">
+      <c r="DK5" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="DK5" s="4" t="s">
+      <c r="DL5" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="DL5" s="4" t="s">
+      <c r="DM5" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="DM5" s="4" t="s">
+      <c r="DN5" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="DN5" s="4" t="s">
+      <c r="DO5" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="DO5" s="4" t="s">
+      <c r="DP5" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="DP5" s="4" t="s">
+      <c r="DQ5" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="DQ5" s="4" t="s">
+      <c r="DR5" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="DR5" s="4" t="s">
+      <c r="DS5" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="DS5" s="4" t="s">
+      <c r="DT5" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="DT5" s="4" t="s">
+      <c r="DU5" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="DU5" s="4" t="s">
+      <c r="DV5" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="DV5" s="4" t="s">
+      <c r="DW5" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="DW5" s="4" t="s">
+      <c r="DX5" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="DX5" s="4" t="s">
+      <c r="DY5" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="DY5" s="4" t="s">
+      <c r="DZ5" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="DZ5" s="4" t="s">
+      <c r="EA5" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="EA5" s="4" t="s">
+      <c r="EB5" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="EB5" s="4" t="s">
+      <c r="EC5" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="EC5" s="4" t="s">
+      <c r="ED5" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="ED5" s="4" t="s">
+      <c r="EE5" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="EE5" s="4" t="s">
+      <c r="EF5" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="EF5" s="4" t="s">
+      <c r="EG5" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="EG5" s="4" t="s">
+      <c r="EH5" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="EH5" s="4" t="s">
+      <c r="EI5" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="EI5" s="4" t="s">
+      <c r="EJ5" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="EJ5" s="4" t="s">
+      <c r="EK5" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="EK5" s="4" t="s">
+      <c r="EL5" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="EL5" s="4" t="s">
+      <c r="EM5" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="EM5" s="4" t="s">
+      <c r="EN5" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="EN5" s="4" t="s">
+      <c r="EO5" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="EO5" s="4" t="s">
+      <c r="EP5" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="EP5" s="4" t="s">
+      <c r="EQ5" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="EQ5" s="4" t="s">
+      <c r="ER5" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="ER5" s="4" t="s">
+      <c r="ES5" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="ES5" s="4" t="s">
+      <c r="ET5" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="ET5" s="5" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:150" x14ac:dyDescent="0.15">
@@ -21575,7 +21586,7 @@
     </row>
     <row r="37" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" s="15" t="str">
         <f>IFERROR(AVERAGE(B6:B36),"")</f>
@@ -22176,7 +22187,7 @@
     </row>
     <row r="38" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="16" t="str">
         <f>IFERROR(STDEVP(B6:B36),"")</f>
@@ -22822,12 +22833,21 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="Z1:AU1"/>
-    <mergeCell ref="AY1:BT1"/>
-    <mergeCell ref="BX1:CS1"/>
-    <mergeCell ref="CW1:DR1"/>
-    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="DW2:DZ2"/>
+    <mergeCell ref="EA2:ED2"/>
+    <mergeCell ref="EE2:EL2"/>
+    <mergeCell ref="EM2:ET2"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="Z2:Z4"/>
+    <mergeCell ref="AY2:AY4"/>
+    <mergeCell ref="BX2:BX4"/>
+    <mergeCell ref="CW2:CW4"/>
+    <mergeCell ref="DV2:DV4"/>
+    <mergeCell ref="CO2:CV2"/>
+    <mergeCell ref="CX2:DA2"/>
+    <mergeCell ref="DB2:DE2"/>
+    <mergeCell ref="DF2:DM2"/>
+    <mergeCell ref="DN2:DU2"/>
     <mergeCell ref="DV1:EQ1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:I2"/>
@@ -22844,21 +22864,12 @@
     <mergeCell ref="BY2:CB2"/>
     <mergeCell ref="CC2:CF2"/>
     <mergeCell ref="CG2:CN2"/>
-    <mergeCell ref="DW2:DZ2"/>
-    <mergeCell ref="EA2:ED2"/>
-    <mergeCell ref="EE2:EL2"/>
-    <mergeCell ref="EM2:ET2"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="Z2:Z4"/>
-    <mergeCell ref="AY2:AY4"/>
-    <mergeCell ref="BX2:BX4"/>
-    <mergeCell ref="CW2:CW4"/>
-    <mergeCell ref="DV2:DV4"/>
-    <mergeCell ref="CO2:CV2"/>
-    <mergeCell ref="CX2:DA2"/>
-    <mergeCell ref="DB2:DE2"/>
-    <mergeCell ref="DF2:DM2"/>
-    <mergeCell ref="DN2:DU2"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="Z1:AU1"/>
+    <mergeCell ref="AY1:BT1"/>
+    <mergeCell ref="BX1:CS1"/>
+    <mergeCell ref="CW1:DR1"/>
+    <mergeCell ref="W1:Y1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22878,451 +22889,451 @@
   <sheetData>
     <row r="1" spans="1:149" ht="54" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AX1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BC1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BD1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BE1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BF1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BG1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BH1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BI1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BK1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BL1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BM1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BN1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BO1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BP1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="BQ1" s="3" t="s">
+      <c r="BR1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="BR1" s="3" t="s">
+      <c r="BS1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="BS1" s="3" t="s">
+      <c r="BT1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="BT1" s="3" t="s">
+      <c r="BU1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BV1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="BV1" s="3" t="s">
+      <c r="BW1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="BW1" s="3" t="s">
+      <c r="BX1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="BX1" s="3" t="s">
+      <c r="BY1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="BY1" s="3" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="BZ1" s="3" t="s">
+      <c r="CA1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CB1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="CB1" s="3" t="s">
+      <c r="CC1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="CC1" s="3" t="s">
+      <c r="CD1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="CD1" s="3" t="s">
+      <c r="CE1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="CE1" s="3" t="s">
+      <c r="CF1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="CF1" s="3" t="s">
+      <c r="CG1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CH1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="CH1" s="3" t="s">
+      <c r="CI1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="CI1" s="3" t="s">
+      <c r="CJ1" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="CJ1" s="3" t="s">
+      <c r="CK1" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="CK1" s="3" t="s">
+      <c r="CL1" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="CL1" s="3" t="s">
+      <c r="CM1" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="CM1" s="4" t="s">
+      <c r="CN1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="CN1" s="4" t="s">
+      <c r="CO1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="CO1" s="4" t="s">
+      <c r="CP1" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="CP1" s="4" t="s">
+      <c r="CQ1" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="CQ1" s="4" t="s">
+      <c r="CR1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="CR1" s="4" t="s">
+      <c r="CS1" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="CS1" s="4" t="s">
+      <c r="CT1" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="CT1" s="4" t="s">
+      <c r="CU1" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="CU1" s="4" t="s">
+      <c r="CV1" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="CV1" s="4" t="s">
+      <c r="CW1" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="CW1" s="4" t="s">
+      <c r="CX1" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="CX1" s="4" t="s">
+      <c r="CY1" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="CY1" s="4" t="s">
+      <c r="CZ1" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="CZ1" s="4" t="s">
+      <c r="DA1" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="DA1" s="4" t="s">
+      <c r="DB1" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="DB1" s="4" t="s">
+      <c r="DC1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="DC1" s="4" t="s">
+      <c r="DD1" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="DD1" s="4" t="s">
+      <c r="DE1" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="DE1" s="4" t="s">
+      <c r="DF1" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="DF1" s="4" t="s">
+      <c r="DG1" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="DG1" s="4" t="s">
+      <c r="DH1" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="DH1" s="4" t="s">
+      <c r="DI1" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="DI1" s="4" t="s">
+      <c r="DJ1" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="DJ1" s="4" t="s">
+      <c r="DK1" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="DK1" s="4" t="s">
+      <c r="DL1" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="DL1" s="4" t="s">
+      <c r="DM1" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="DM1" s="4" t="s">
+      <c r="DN1" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="DN1" s="4" t="s">
+      <c r="DO1" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="DO1" s="4" t="s">
+      <c r="DP1" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="DP1" s="4" t="s">
+      <c r="DQ1" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="DQ1" s="4" t="s">
+      <c r="DR1" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="DR1" s="4" t="s">
+      <c r="DS1" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="DS1" s="4" t="s">
+      <c r="DT1" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="DT1" s="4" t="s">
+      <c r="DU1" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="DU1" s="4" t="s">
+      <c r="DV1" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="DV1" s="4" t="s">
+      <c r="DW1" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="DW1" s="4" t="s">
+      <c r="DX1" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="DX1" s="4" t="s">
+      <c r="DY1" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="DY1" s="4" t="s">
+      <c r="DZ1" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="DZ1" s="4" t="s">
+      <c r="EA1" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="EA1" s="4" t="s">
+      <c r="EB1" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="EB1" s="4" t="s">
+      <c r="EC1" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="EC1" s="4" t="s">
+      <c r="ED1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="ED1" s="4" t="s">
+      <c r="EE1" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="EE1" s="4" t="s">
+      <c r="EF1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="EF1" s="4" t="s">
+      <c r="EG1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="EG1" s="4" t="s">
+      <c r="EH1" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="EH1" s="4" t="s">
+      <c r="EI1" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="EI1" s="4" t="s">
+      <c r="EJ1" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="EJ1" s="4" t="s">
+      <c r="EK1" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="EK1" s="4" t="s">
+      <c r="EL1" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="EL1" s="4" t="s">
+      <c r="EM1" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="EM1" s="4" t="s">
+      <c r="EN1" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="EN1" s="4" t="s">
+      <c r="EO1" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="EO1" s="4" t="s">
+      <c r="EP1" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="EP1" s="4" t="s">
+      <c r="EQ1" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="EQ1" s="4" t="s">
+      <c r="ER1" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="ER1" s="4" t="s">
+      <c r="ES1" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="ES1" s="5" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -23343,7 +23354,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B1">
         <v>6</v>
@@ -23367,79 +23378,79 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1"/>
     </row>
